--- a/MR Indicator-2/MR_Indicators-2_r1_BOM.xlsx
+++ b/MR Indicator-2/MR_Indicators-2_r1_BOM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -78,19 +78,19 @@
     <t xml:space="preserve">J1</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00mm Pitch Micro-Latch Wire-to-Board Header Vertical, 2 Circuits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro-Latch V 1x02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro-Latch 1x2 V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro-Latch 1x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532530270</t>
+    <t xml:space="preserve">2.00mm Pitch Micro-Latch Wire-to-Board Header Vertical, 3 Circuits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro-Latch V 1x03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro-Latch 1x3 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro-Latch 1x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532530370</t>
   </si>
   <si>
     <t xml:space="preserve">J2</t>
@@ -129,6 +129,39 @@
     <t xml:space="preserve">L-1503SRD</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNP Transistor 65V 0.1A SOT23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q PNP 65V 0.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65V 0.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC856BLT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN Transistor 60V 0.1A SOT23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q NPN 60V 0.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60V 0.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMBT2484</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1, R2, R3, R4</t>
   </si>
   <si>
@@ -142,6 +175,30 @@
   </si>
   <si>
     <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 0603 10k 1/10W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_10000_0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21, R22, R23, R24, R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 0603 1k 1/10W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_1000_0603</t>
   </si>
 </sst>
 </file>
@@ -371,22 +428,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.08"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="8.5"/>
   </cols>
   <sheetData>
@@ -543,12 +602,112 @@
       <c r="F6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="H6" s="7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
